--- a/diagram/Full Use Case Description.xlsx
+++ b/diagram/Full Use Case Description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\chello\diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D887E9-54D8-46B2-981E-4A2332388DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF297906-CBAF-48C3-8E81-3C03996E7754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" tabRatio="823" firstSheet="1" activeTab="4" xr2:uid="{0E0E07DD-BAF3-4BBF-A046-48B6022B4B67}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" tabRatio="823" firstSheet="1" activeTab="4" xr2:uid="{0E0E07DD-BAF3-4BBF-A046-48B6022B4B67}"/>
   </bookViews>
   <sheets>
     <sheet name="Invite Workspace Member" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
   <si>
     <t>Use case name</t>
   </si>
@@ -74,58 +74,16 @@
     <t>Except Conditions</t>
   </si>
   <si>
-    <t>Workspace Admin wants to include a new workspace member</t>
-  </si>
-  <si>
-    <t>Workspace Admin going to workspace page, then select members tab, click invite new member button on the bottom right of the page. Workspace Admin select invitation method either via email or generated link. Then the system will generate link for those method.</t>
-  </si>
-  <si>
     <t>Workspace Admin</t>
   </si>
   <si>
-    <t>Receive Invitation, Click invitation link, Accept invitation, Reject invitation, Join a workspace (become workspace member), Notify other members that new user joined the workspace</t>
-  </si>
-  <si>
-    <t>Workspace Admin, Registered User, Unregistered User, Workspace Member</t>
-  </si>
-  <si>
-    <t>There is a User who Workspace Admin wants to invite</t>
-  </si>
-  <si>
     <t>Actor</t>
   </si>
   <si>
     <t>System</t>
   </si>
   <si>
-    <t>Notify other members that new user joined the workspace</t>
-  </si>
-  <si>
-    <t>Workspace Admin, User</t>
-  </si>
-  <si>
-    <t>1. Workspace Admin click invite new member button
-2. Workspace Admin select invitation method
-3. If Workspace Admin select invite via email, Workspace Admin input user's email that wants to be invited
-4. If Workspace Admin select invite via generated link, Workspace Admin set the expired date of the link and copy that
-5. Workspace Admin paste the link to user that wants to be invited
-6. User click that link</t>
-  </si>
-  <si>
-    <t>3.1 If the user already joined the workspace, cancel the invitation and show warning message to Workspace Admin
-3.1 If the user already invited via email (but has not accept or reject invitation), show warning message to Workspace Admin
-6.1 If Unregistered User click the invitation link, redirect that user to register page</t>
-  </si>
-  <si>
     <t>Invite Workspace Member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1 System show invite new member modal
-2.1 System will prompt Workspace Admin the required data based on invitation method
-3.1 System will send the email invitation to that user
-4.1 System will generate link and show that on the page
-6.1 System will add that user to workspace and notify all members that new user joined the workspace
-</t>
   </si>
   <si>
     <t>View Board</t>
@@ -273,6 +231,67 @@
   </si>
   <si>
     <t>2.1 If the there is another admin in the workspace, Workspace Admin need to wait the other admin to approve workspace deletion process to delete the workspace</t>
+  </si>
+  <si>
+    <t>Invite a user to be a workspace member</t>
+  </si>
+  <si>
+    <t>Workspace Admin wants to invite a new workspace member</t>
+  </si>
+  <si>
+    <t>Workspace Admin click invite new member. Workspace Admin select invitation method either via email or generated link. Then the system will send email or generate link for those method.</t>
+  </si>
+  <si>
+    <t>Might be invoke View invitation page, Accept invitation, and Reject invitation</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>The user have not been a member of workspace or invited</t>
+  </si>
+  <si>
+    <t>The user invited to the workspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Workspace Admin click invite workspace member button
+2. Workspace Admin select invitation method
+3.1 Workspace Admin select via email
+3.1.1 Workspace Admin input user's email that wants to be invited
+3.2 Workspace Admin select via generated link
+3.2.1 Workspace Admin input expired date
+</t>
+  </si>
+  <si>
+    <t>1.1 System show available invitation method
+2.1 Workspace Admin select via email
+2.1.1 System will prompt Workspace Admin to enter email
+2.2 Workspace Admin select via generated link
+2.2.1 System will prompt Workspace Admin to enter expired date
+3.1.1.1 Email not registered
+3.1.1.1.1 System will prompt Workspace Admin to enter email again
+3.1.1.2 Email registered
+3.1.1.2.1 System will send invitation to that user
+3.2.1.1 System will generate link
+3.2.1.1.1 System set link's expired date
+3.2.1.1.1.1 System show generated link</t>
+  </si>
+  <si>
+    <t>View User joined board</t>
+  </si>
+  <si>
+    <t>Comment in card or reply another user's comment</t>
+  </si>
+  <si>
+    <t>Leave from a board</t>
+  </si>
+  <si>
+    <t>Delete a Workspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1 If the user already joined the workspace, cancel the invitation and show warning message to Workspace Admin
+3.1 If the user already invited via email (but has not accept or reject invitation), show warning message to Workspace Admin
+</t>
   </si>
 </sst>
 </file>
@@ -336,20 +355,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,126 +686,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013D0C00-BDAA-4840-8FFF-D26A1FD07AA7}">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="2:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="240" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="389.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -795,12 +816,12 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -812,125 +833,127 @@
   <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="2:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>31</v>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -939,12 +962,12 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -955,125 +978,127 @@
   <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="2:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>42</v>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1098,125 +1123,127 @@
   <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:D8"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="2:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>52</v>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1225,12 +1252,12 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1241,125 +1268,127 @@
   <dimension ref="B2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="17" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" style="3" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="2:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="2:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>62</v>
+      <c r="B12" s="6"/>
+      <c r="C12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="4"/>
+      <c r="C13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1368,12 +1397,12 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
